--- a/GATEWAY/A1#111#VISIVCOMUNICAZIONESRLXX/visivcomunicazione.it/cardiomanager@visivcomunicazione.it/1.0.0/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111#VISIVCOMUNICAZIONESRLXX/visivcomunicazione.it/cardiomanager@visivcomunicazione.it/1.0.0/accreditamento-checklist_V8.2.6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VISIVCOMUNICAZIONE\Gestionale Medico\CARDIO MANAGER\UnitTest\FSE2_0_TESTS\MKO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386FB967-BD43-4BCD-9874-E028AE1A12B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E759286-57FA-4ADD-9EC1-0757E02F340F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="269" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="269" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="182">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -152,15 +152,6 @@
   </si>
   <si>
     <t>IDENTIFICATIVI SOFTWARE</t>
-  </si>
-  <si>
-    <t>subject_application_id:</t>
-  </si>
-  <si>
-    <t>subject_application_vendor:</t>
-  </si>
-  <si>
-    <t>subject_application_version:</t>
   </si>
   <si>
     <t>ID</t>
@@ -699,9 +690,6 @@
 Status: 403,</t>
   </si>
   <si>
-    <t>Il software lascia la libertà di inserire lettere maiuscole e minuscole per il codice fiscale (STP, ENI, TEAM).</t>
-  </si>
-  <si>
     <t>In caso di errore il codice fiscale dovrà essere corretto manualmente e si dovrà procedere alla ri validazione del documento manualmente.</t>
   </si>
   <si>
@@ -771,22 +759,48 @@
     <t>Campo non gestito dal software</t>
   </si>
   <si>
-    <t>6844c45d2a3c579137a2389381e7e3a3</t>
-  </si>
-  <si>
-    <t>2025-09-01T08:35:00Z</t>
-  </si>
-  <si>
-    <t>57ccb9ce47cd23ac821a081410f442ab</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.6423a40ad0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>c67057bc8a75d1246801a6057f24da21</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.29867c5087^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-09-02T08:08:00Z</t>
+  </si>
+  <si>
+    <t>2025-09-02T08:09:00Z</t>
+  </si>
+  <si>
+    <t>bdb6a86dbe1101899712e27cb2638441</t>
+  </si>
+  <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t>Il software lascia la libertà di inserire lettere maiuscole e minuscole per il codice fiscale (STP, ENI, TEAM). Siccome il codice fiscale viene stampato anche nel token di signature nella voce person id quello che ne resulta è un errore di autenticazione 403:
+Type: /msg/jwt-validation,
+Title: Campo token JWT non valido.,
+Detail: Il codice fiscale nel campo person_id non è corretto,
+Status: 403,
+Instance: /jwt-mandatory-field-malformed,</t>
+  </si>
+  <si>
+    <t>ec4181705e717b1a6058a7430d27d0e1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.a0bd0b3bc4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>21c036408125a6378003da80b16238b7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.95d6709d2d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>subject_application_id: cardiomanager@visivcomunicazione.it</t>
+  </si>
+  <si>
+    <t>subject_application_vendor: visivcomunicazione.it</t>
+  </si>
+  <si>
+    <t>subject_application_version: 1.0.0</t>
+  </si>
+  <si>
+    <t>Visiv Comunicazione srl</t>
   </si>
 </sst>
 </file>
@@ -796,7 +810,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -913,8 +927,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -937,6 +964,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1237,11 +1270,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1361,9 +1395,6 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1375,8 +1406,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Excel Built-in Good" xfId="2" xr:uid="{93667CFE-CE97-4EA0-BE3D-939549E719B9}"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{565105C8-FFD6-432C-8B2E-BD1D172FCD26}"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1693,7 +1731,7 @@
     </row>
     <row r="2" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1703,22 +1741,22 @@
     </row>
     <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="255" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -1816,7 +1854,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2825,10 +2863,10 @@
   <dimension ref="A1:W592"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J37" sqref="J37"/>
+      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2879,8 +2917,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="46"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="46"/>
+      <c r="C2" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="55"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -2901,12 +2941,12 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="54" t="s">
-        <v>14</v>
+      <c r="B3" s="48"/>
+      <c r="C3" s="53" t="s">
+        <v>178</v>
       </c>
       <c r="D3" s="46"/>
       <c r="F3" s="6"/>
@@ -2929,10 +2969,10 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="54" t="s">
-        <v>15</v>
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="53" t="s">
+        <v>179</v>
       </c>
       <c r="D4" s="46"/>
       <c r="E4" s="4"/>
@@ -2956,10 +2996,10 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="54" t="s">
-        <v>16</v>
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53" t="s">
+        <v>180</v>
       </c>
       <c r="D5" s="46"/>
       <c r="F5" s="6"/>
@@ -3049,71 +3089,71 @@
     </row>
     <row r="9" spans="1:23" s="18" customFormat="1" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="E9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="F9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="G9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="H9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="I9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="J9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="K9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="L9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="N9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="O9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="M9" s="20" t="s">
+      <c r="P9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="Q9" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="R9" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="S9" s="20" t="s">
         <v>29</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q9" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="R9" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="S9" s="20" t="s">
-        <v>32</v>
       </c>
       <c r="T9" s="20"/>
       <c r="U9" s="21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="V9" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W9" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="40" customFormat="1" ht="159.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3121,58 +3161,58 @@
         <v>32</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
       <c r="I10" s="37"/>
       <c r="J10" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L10" s="38" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M10" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N10" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P10" s="38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R10" s="38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S10" s="35" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="T10" s="38"/>
       <c r="U10" s="39"/>
       <c r="V10" s="35" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="W10" s="38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="40" customFormat="1" ht="156.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3180,58 +3220,58 @@
         <v>40</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>51</v>
-      </c>
       <c r="E11" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F11" s="36"/>
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
       <c r="I11" s="37"/>
       <c r="J11" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M11" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N11" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P11" s="38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q11" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R11" s="38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S11" s="35" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="T11" s="38"/>
       <c r="U11" s="39"/>
       <c r="V11" s="35" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="W11" s="38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:23" s="40" customFormat="1" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3239,125 +3279,127 @@
         <v>48</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
       <c r="I12" s="37"/>
       <c r="J12" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K12" s="38" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M12" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N12" s="38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P12" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R12" s="38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S12" s="35" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="T12" s="38" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="U12" s="39" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V12" s="35" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W12" s="38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" s="40" customFormat="1" ht="113.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="40" customFormat="1" ht="141" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33">
         <v>152</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F13" s="36">
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="I13" s="37"/>
+        <v>171</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>172</v>
+      </c>
       <c r="J13" s="38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K13" s="38"/>
       <c r="L13" s="38"/>
       <c r="M13" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N13" s="38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P13" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R13" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S13" s="35" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="T13" s="38" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="U13" s="39"/>
       <c r="V13" s="35" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="W13" s="38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:23" s="40" customFormat="1" ht="122.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3365,54 +3407,54 @@
         <v>154</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
       <c r="H14" s="36"/>
       <c r="I14" s="37"/>
       <c r="J14" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N14" s="38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O14" s="38" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P14" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R14" s="38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S14" s="38" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="T14" s="38"/>
       <c r="U14" s="39"/>
       <c r="V14" s="41"/>
       <c r="W14" s="38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:23" s="40" customFormat="1" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3420,54 +3462,54 @@
         <v>155</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
       <c r="I15" s="37"/>
       <c r="J15" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K15" s="38" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L15" s="38"/>
       <c r="M15" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N15" s="38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O15" s="38" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P15" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R15" s="38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S15" s="38" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="T15" s="38"/>
       <c r="U15" s="39"/>
       <c r="V15" s="41"/>
       <c r="W15" s="38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:23" s="40" customFormat="1" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3475,54 +3517,54 @@
         <v>156</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F16" s="36"/>
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
       <c r="I16" s="37"/>
       <c r="J16" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K16" s="38" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L16" s="38"/>
       <c r="M16" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N16" s="38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O16" s="38" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P16" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R16" s="38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S16" s="38" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="T16" s="38"/>
       <c r="U16" s="39"/>
       <c r="V16" s="41"/>
       <c r="W16" s="38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:23" s="40" customFormat="1" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3530,56 +3572,56 @@
         <v>159</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F17" s="36"/>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="I17" s="37"/>
       <c r="J17" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L17" s="38"/>
       <c r="M17" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N17" s="38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O17" s="38" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P17" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R17" s="38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S17" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="T17" s="38"/>
       <c r="U17" s="39"/>
       <c r="V17" s="35" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="W17" s="38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:23" s="40" customFormat="1" ht="116.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3587,56 +3629,56 @@
         <v>160</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F18" s="36"/>
       <c r="G18" s="36"/>
       <c r="H18" s="36"/>
       <c r="I18" s="37"/>
       <c r="J18" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K18" s="38" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L18" s="38"/>
       <c r="M18" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N18" s="38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O18" s="38" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P18" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R18" s="38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S18" s="38" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="T18" s="38"/>
       <c r="U18" s="39"/>
       <c r="V18" s="35" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="W18" s="38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:23" s="40" customFormat="1" ht="115.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3644,52 +3686,52 @@
         <v>161</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F19" s="36"/>
       <c r="G19" s="36"/>
       <c r="H19" s="36"/>
       <c r="I19" s="37"/>
       <c r="J19" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K19" s="38" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L19" s="38"/>
       <c r="M19" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N19" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O19" s="38"/>
       <c r="P19" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R19" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S19" s="38"/>
       <c r="T19" s="38"/>
       <c r="U19" s="39"/>
       <c r="V19" s="35" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="W19" s="38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:23" s="40" customFormat="1" ht="111.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3697,52 +3739,52 @@
         <v>162</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="37"/>
       <c r="J20" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K20" s="38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L20" s="38"/>
       <c r="M20" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N20" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O20" s="38"/>
       <c r="P20" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R20" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S20" s="38"/>
       <c r="T20" s="38"/>
       <c r="U20" s="39"/>
       <c r="V20" s="35" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="W20" s="38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:23" s="40" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3750,54 +3792,54 @@
         <v>163</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F21" s="36"/>
       <c r="G21" s="36"/>
       <c r="H21" s="36"/>
       <c r="I21" s="37"/>
       <c r="J21" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K21" s="38" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L21" s="38"/>
       <c r="M21" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N21" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O21" s="38"/>
       <c r="P21" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R21" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S21" s="35" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="T21" s="38"/>
       <c r="U21" s="39"/>
       <c r="V21" s="35" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="W21" s="38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:23" s="40" customFormat="1" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3805,50 +3847,50 @@
         <v>164</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
       <c r="I22" s="37"/>
       <c r="J22" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K22" s="38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L22" s="38"/>
       <c r="M22" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N22" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O22" s="38"/>
       <c r="P22" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R22" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S22" s="38"/>
       <c r="T22" s="38"/>
       <c r="U22" s="39"/>
       <c r="V22" s="41"/>
       <c r="W22" s="38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:23" s="40" customFormat="1" ht="117" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3856,50 +3898,50 @@
         <v>165</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
       <c r="H23" s="36"/>
       <c r="I23" s="37"/>
       <c r="J23" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K23" s="38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L23" s="38"/>
       <c r="M23" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N23" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O23" s="38"/>
       <c r="P23" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R23" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S23" s="38"/>
       <c r="T23" s="38"/>
       <c r="U23" s="39"/>
       <c r="V23" s="41"/>
       <c r="W23" s="38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:23" s="40" customFormat="1" ht="111.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3907,50 +3949,50 @@
         <v>166</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
       <c r="H24" s="36"/>
       <c r="I24" s="37"/>
       <c r="J24" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K24" s="38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L24" s="38"/>
       <c r="M24" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N24" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O24" s="38"/>
       <c r="P24" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q24" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R24" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S24" s="38"/>
       <c r="T24" s="38"/>
       <c r="U24" s="39"/>
       <c r="V24" s="41"/>
       <c r="W24" s="38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:23" s="40" customFormat="1" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3958,50 +4000,50 @@
         <v>167</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F25" s="36"/>
       <c r="G25" s="36"/>
       <c r="H25" s="36"/>
       <c r="I25" s="37"/>
       <c r="J25" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K25" s="38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L25" s="38"/>
       <c r="M25" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N25" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O25" s="38"/>
       <c r="P25" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q25" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R25" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S25" s="38"/>
       <c r="T25" s="38"/>
       <c r="U25" s="39"/>
       <c r="V25" s="41"/>
       <c r="W25" s="38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:23" s="40" customFormat="1" ht="106.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4009,52 +4051,52 @@
         <v>168</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
       <c r="H26" s="36"/>
       <c r="I26" s="37"/>
       <c r="J26" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K26" s="38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L26" s="38"/>
       <c r="M26" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N26" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O26" s="38"/>
       <c r="P26" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q26" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R26" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S26" s="38"/>
       <c r="T26" s="38"/>
       <c r="U26" s="39"/>
       <c r="V26" s="35" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="W26" s="38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:23" s="40" customFormat="1" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4062,50 +4104,50 @@
         <v>169</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F27" s="36"/>
       <c r="G27" s="36"/>
       <c r="H27" s="36"/>
       <c r="I27" s="37"/>
       <c r="J27" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K27" s="38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L27" s="38"/>
       <c r="M27" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N27" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O27" s="38"/>
       <c r="P27" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q27" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R27" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S27" s="38"/>
       <c r="T27" s="38"/>
       <c r="U27" s="39"/>
       <c r="V27" s="41"/>
       <c r="W27" s="38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:23" s="40" customFormat="1" ht="139.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4113,31 +4155,31 @@
         <v>448</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F28" s="36">
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="G28" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="H28" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="H28" s="36" t="s">
+      <c r="I28" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="I28" s="37" t="s">
-        <v>176</v>
-      </c>
       <c r="J28" s="38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K28" s="38"/>
       <c r="L28" s="38"/>
@@ -4149,12 +4191,12 @@
       <c r="R28" s="38"/>
       <c r="S28" s="38"/>
       <c r="T28" s="38" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="U28" s="39"/>
       <c r="V28" s="41"/>
       <c r="W28" s="38" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:23" s="40" customFormat="1" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4162,31 +4204,31 @@
         <v>449</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F29" s="36">
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H29" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="I29" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="I29" s="37" t="s">
-        <v>178</v>
-      </c>
       <c r="J29" s="38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K29" s="38"/>
       <c r="L29" s="38"/>
@@ -4198,12 +4240,12 @@
       <c r="R29" s="38"/>
       <c r="S29" s="38"/>
       <c r="T29" s="38" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="U29" s="39"/>
       <c r="V29" s="41"/>
       <c r="W29" s="38" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:23" s="40" customFormat="1" ht="112.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4211,50 +4253,50 @@
         <v>461</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
       <c r="J30" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K30" s="38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L30" s="33"/>
       <c r="M30" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N30" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O30" s="33"/>
       <c r="P30" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q30" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R30" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S30" s="33"/>
       <c r="T30" s="38"/>
       <c r="U30" s="33"/>
       <c r="V30" s="33"/>
       <c r="W30" s="33" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:23" s="40" customFormat="1" ht="113.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4262,52 +4304,52 @@
         <v>468</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K31" s="38" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L31" s="33"/>
       <c r="M31" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N31" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O31" s="33"/>
       <c r="P31" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q31" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R31" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S31" s="33"/>
       <c r="T31" s="38"/>
       <c r="U31" s="33"/>
       <c r="V31" s="42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="W31" s="33" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:23" s="40" customFormat="1" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4315,52 +4357,52 @@
         <v>475</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F32" s="36"/>
       <c r="G32" s="36"/>
       <c r="H32" s="36"/>
       <c r="I32" s="37"/>
       <c r="J32" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K32" s="38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L32" s="38"/>
       <c r="M32" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N32" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O32" s="38"/>
       <c r="P32" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q32" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R32" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S32" s="38"/>
       <c r="T32" s="38"/>
       <c r="U32" s="39"/>
       <c r="V32" s="35" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="W32" s="38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8392,8 +8434,8 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -8433,42 +8475,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -8498,162 +8540,162 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>73</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9631,26 +9673,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10664,15 +10706,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10934,27 +10973,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10979,9 +11012,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
